--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.313064</v>
+        <v>8.046693333333332</v>
       </c>
       <c r="H2">
-        <v>30.939192</v>
+        <v>24.14008</v>
       </c>
       <c r="I2">
-        <v>0.1565731863895583</v>
+        <v>0.1898464613574432</v>
       </c>
       <c r="J2">
-        <v>0.1974684887046383</v>
+        <v>0.2196138219277688</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N2">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O2">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P2">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q2">
-        <v>8.741174286624</v>
+        <v>6.159290449608888</v>
       </c>
       <c r="R2">
-        <v>78.670568579616</v>
+        <v>55.43361404648</v>
       </c>
       <c r="S2">
-        <v>0.0007991018511590491</v>
+        <v>0.0008801051006750555</v>
       </c>
       <c r="T2">
-        <v>0.001010712548784863</v>
+        <v>0.001018890685006214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.313064</v>
+        <v>8.046693333333332</v>
       </c>
       <c r="H3">
-        <v>30.939192</v>
+        <v>24.14008</v>
       </c>
       <c r="I3">
-        <v>0.1565731863895583</v>
+        <v>0.1898464613574432</v>
       </c>
       <c r="J3">
-        <v>0.1974684887046383</v>
+        <v>0.2196138219277688</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>491.042579</v>
       </c>
       <c r="O3">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P3">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q3">
-        <v>1688.051181317352</v>
+        <v>1317.089682274036</v>
       </c>
       <c r="R3">
-        <v>15192.46063185617</v>
+        <v>11853.80714046632</v>
       </c>
       <c r="S3">
-        <v>0.1543184908126223</v>
+        <v>0.1881998189400979</v>
       </c>
       <c r="T3">
-        <v>0.1951836739554932</v>
+        <v>0.2178774356504041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.313064</v>
+        <v>8.046693333333332</v>
       </c>
       <c r="H4">
-        <v>30.939192</v>
+        <v>24.14008</v>
       </c>
       <c r="I4">
-        <v>0.1565731863895583</v>
+        <v>0.1898464613574432</v>
       </c>
       <c r="J4">
-        <v>0.1974684887046383</v>
+        <v>0.2196138219277688</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N4">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O4">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P4">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q4">
-        <v>0.5332094726159999</v>
+        <v>1.250812880737777</v>
       </c>
       <c r="R4">
-        <v>4.798885253543999</v>
+        <v>11.25731592664</v>
       </c>
       <c r="S4">
-        <v>4.874501556100984E-05</v>
+        <v>0.0001787294827762638</v>
       </c>
       <c r="T4">
-        <v>6.16532158532319E-05</v>
+        <v>0.0002069137026896396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.313064</v>
+        <v>8.046693333333332</v>
       </c>
       <c r="H5">
-        <v>30.939192</v>
+        <v>24.14008</v>
       </c>
       <c r="I5">
-        <v>0.1565731863895583</v>
+        <v>0.1898464613574432</v>
       </c>
       <c r="J5">
-        <v>0.1974684887046383</v>
+        <v>0.2196138219277688</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N5">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O5">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P5">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q5">
-        <v>14.709801635928</v>
+        <v>3.081521445466667</v>
       </c>
       <c r="R5">
-        <v>88.25880981556799</v>
+        <v>18.4891286728</v>
       </c>
       <c r="S5">
-        <v>0.001344742632055713</v>
+        <v>0.0004403206447533251</v>
       </c>
       <c r="T5">
-        <v>0.001133896554098689</v>
+        <v>0.0003398371421859957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.313064</v>
+        <v>8.046693333333332</v>
       </c>
       <c r="H6">
-        <v>30.939192</v>
+        <v>24.14008</v>
       </c>
       <c r="I6">
-        <v>0.1565731863895583</v>
+        <v>0.1898464613574432</v>
       </c>
       <c r="J6">
-        <v>0.1974684887046383</v>
+        <v>0.2196138219277688</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N6">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O6">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P6">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q6">
-        <v>0.679362777936</v>
+        <v>1.032168129484444</v>
       </c>
       <c r="R6">
-        <v>6.114265001423999</v>
+        <v>9.289513165359999</v>
       </c>
       <c r="S6">
-        <v>6.210607816022415E-05</v>
+        <v>0.0001474871891406216</v>
       </c>
       <c r="T6">
-        <v>7.855243040834646E-05</v>
+        <v>0.0001707447474828482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.111509</v>
+        <v>4.111509000000001</v>
       </c>
       <c r="H7">
         <v>12.334527</v>
       </c>
       <c r="I7">
-        <v>0.06242102880379162</v>
+        <v>0.09700325365399949</v>
       </c>
       <c r="J7">
-        <v>0.07872475808600808</v>
+        <v>0.1122130753560575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N7">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O7">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P7">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q7">
-        <v>3.484843762244</v>
+        <v>3.147128524493001</v>
       </c>
       <c r="R7">
-        <v>31.363593860196</v>
+        <v>28.32415672043701</v>
       </c>
       <c r="S7">
-        <v>0.0003185779175768803</v>
+        <v>0.0004496952838231768</v>
       </c>
       <c r="T7">
-        <v>0.0004029407497851175</v>
+        <v>0.0005206086584741081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.111509</v>
+        <v>4.111509000000001</v>
       </c>
       <c r="H8">
         <v>12.334527</v>
       </c>
       <c r="I8">
-        <v>0.06242102880379162</v>
+        <v>0.09700325365399949</v>
       </c>
       <c r="J8">
-        <v>0.07872475808600808</v>
+        <v>0.1122130753560575</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>491.042579</v>
       </c>
       <c r="O8">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P8">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q8">
-        <v>672.9753276472371</v>
+        <v>672.9753276472372</v>
       </c>
       <c r="R8">
         <v>6056.777948825134</v>
       </c>
       <c r="S8">
-        <v>0.06152214936729899</v>
+        <v>0.09616189126596721</v>
       </c>
       <c r="T8">
-        <v>0.07781387103978758</v>
+        <v>0.1113258577734901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.111509</v>
+        <v>4.111509000000001</v>
       </c>
       <c r="H9">
         <v>12.334527</v>
       </c>
       <c r="I9">
-        <v>0.06242102880379162</v>
+        <v>0.09700325365399949</v>
       </c>
       <c r="J9">
-        <v>0.07872475808600808</v>
+        <v>0.1122130753560575</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N9">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O9">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P9">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q9">
-        <v>0.212574608821</v>
+        <v>0.6391107754990001</v>
       </c>
       <c r="R9">
-        <v>1.913171479389</v>
+        <v>5.751996979491</v>
       </c>
       <c r="S9">
-        <v>1.943317429080553E-05</v>
+        <v>9.132296293135156E-05</v>
       </c>
       <c r="T9">
-        <v>2.457928621983784E-05</v>
+        <v>0.0001057238688726522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.111509</v>
+        <v>4.111509000000001</v>
       </c>
       <c r="H10">
         <v>12.334527</v>
       </c>
       <c r="I10">
-        <v>0.06242102880379162</v>
+        <v>0.09700325365399949</v>
       </c>
       <c r="J10">
-        <v>0.07872475808600808</v>
+        <v>0.1122130753560575</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N10">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O10">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P10">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q10">
-        <v>5.864356297442999</v>
+        <v>1.574522929095</v>
       </c>
       <c r="R10">
-        <v>35.18613778465799</v>
+        <v>9.447137574570002</v>
       </c>
       <c r="S10">
-        <v>0.0005361085157990634</v>
+        <v>0.0002249846264539015</v>
       </c>
       <c r="T10">
-        <v>0.00045205051449751</v>
+        <v>0.0001736419434358131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.111509</v>
+        <v>4.111509000000001</v>
       </c>
       <c r="H11">
         <v>12.334527</v>
       </c>
       <c r="I11">
-        <v>0.06242102880379162</v>
+        <v>0.09700325365399949</v>
       </c>
       <c r="J11">
-        <v>0.07872475808600808</v>
+        <v>0.1122130753560575</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N11">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O11">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P11">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q11">
-        <v>0.270841543866</v>
+        <v>0.5273928529510001</v>
       </c>
       <c r="R11">
-        <v>2.437573894794</v>
+        <v>4.746535676559001</v>
       </c>
       <c r="S11">
-        <v>2.475982882589161E-05</v>
+        <v>7.535951482385746E-05</v>
       </c>
       <c r="T11">
-        <v>3.131649571803202E-05</v>
+        <v>8.724311178485631E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.706169333333333</v>
+        <v>5.787358999999999</v>
       </c>
       <c r="H12">
-        <v>17.118508</v>
+        <v>17.362077</v>
       </c>
       <c r="I12">
-        <v>0.08663120044618956</v>
+        <v>0.1365417546364988</v>
       </c>
       <c r="J12">
-        <v>0.1092583770008687</v>
+        <v>0.1579510957119533</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N12">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O12">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P12">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q12">
-        <v>4.836450219998222</v>
+        <v>4.429897293276333</v>
       </c>
       <c r="R12">
-        <v>43.528051979984</v>
+        <v>39.86907563948701</v>
       </c>
       <c r="S12">
-        <v>0.0004421392592243842</v>
+        <v>0.0006329909646535168</v>
       </c>
       <c r="T12">
-        <v>0.0005592224532584453</v>
+        <v>0.0007328086123849067</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.706169333333333</v>
+        <v>5.787358999999999</v>
       </c>
       <c r="H13">
-        <v>17.118508</v>
+        <v>17.362077</v>
       </c>
       <c r="I13">
-        <v>0.08663120044618956</v>
+        <v>0.1365417546364988</v>
       </c>
       <c r="J13">
-        <v>0.1092583770008687</v>
+        <v>0.1579510957119533</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>491.042579</v>
       </c>
       <c r="O13">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P13">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q13">
-        <v>933.9907018835702</v>
+        <v>947.2798963196204</v>
       </c>
       <c r="R13">
-        <v>8405.916316952133</v>
+        <v>8525.519066876583</v>
       </c>
       <c r="S13">
-        <v>0.0853836880912663</v>
+        <v>0.1353574531577376</v>
       </c>
       <c r="T13">
-        <v>0.1079941998510014</v>
+        <v>0.1567022484732802</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.706169333333333</v>
+        <v>5.787358999999999</v>
       </c>
       <c r="H14">
-        <v>17.118508</v>
+        <v>17.362077</v>
       </c>
       <c r="I14">
-        <v>0.08663120044618956</v>
+        <v>0.1365417546364988</v>
       </c>
       <c r="J14">
-        <v>0.1092583770008687</v>
+        <v>0.1579510957119533</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N14">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O14">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P14">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q14">
-        <v>0.2950222689284444</v>
+        <v>0.8996121615156665</v>
       </c>
       <c r="R14">
-        <v>2.655200420356</v>
+        <v>8.096509453641</v>
       </c>
       <c r="S14">
-        <v>2.697038561450704E-05</v>
+        <v>0.0001285461788913569</v>
       </c>
       <c r="T14">
-        <v>3.411243153374132E-05</v>
+        <v>0.0001488168903521708</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.706169333333333</v>
+        <v>5.787358999999999</v>
       </c>
       <c r="H15">
-        <v>17.118508</v>
+        <v>17.362077</v>
       </c>
       <c r="I15">
-        <v>0.08663120044618956</v>
+        <v>0.1365417546364988</v>
       </c>
       <c r="J15">
-        <v>0.1092583770008687</v>
+        <v>0.1579510957119533</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N15">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O15">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P15">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q15">
-        <v>8.138863386705331</v>
+        <v>2.216298065845</v>
       </c>
       <c r="R15">
-        <v>48.83318032023199</v>
+        <v>13.29778839507</v>
       </c>
       <c r="S15">
-        <v>0.0007440397119868798</v>
+        <v>0.000316688301732922</v>
       </c>
       <c r="T15">
-        <v>0.000627379578384298</v>
+        <v>0.0002444183544583616</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.706169333333333</v>
+        <v>5.787358999999999</v>
       </c>
       <c r="H16">
-        <v>17.118508</v>
+        <v>17.362077</v>
       </c>
       <c r="I16">
-        <v>0.08663120044618956</v>
+        <v>0.1365417546364988</v>
       </c>
       <c r="J16">
-        <v>0.1092583770008687</v>
+        <v>0.1579510957119533</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N16">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O16">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P16">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q16">
-        <v>0.375888198664</v>
+        <v>0.7423580427676667</v>
       </c>
       <c r="R16">
-        <v>3.382993787975999</v>
+        <v>6.681222384909</v>
       </c>
       <c r="S16">
-        <v>3.43629980975076E-05</v>
+        <v>0.0001060760334834448</v>
       </c>
       <c r="T16">
-        <v>4.346268669087164E-05</v>
+        <v>0.0001228033814777236</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.92297499999999</v>
+        <v>17.235221</v>
       </c>
       <c r="H17">
-        <v>81.84594999999999</v>
+        <v>34.470442</v>
       </c>
       <c r="I17">
-        <v>0.6212935934742801</v>
+        <v>0.406632337286806</v>
       </c>
       <c r="J17">
-        <v>0.5223793838279743</v>
+        <v>0.3135940523461183</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N17">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O17">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P17">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q17">
-        <v>34.68560427843333</v>
+        <v>13.19259075805033</v>
       </c>
       <c r="R17">
-        <v>208.1136256706</v>
+        <v>79.155544548302</v>
       </c>
       <c r="S17">
-        <v>0.003170893255140809</v>
+        <v>0.001885098050217128</v>
       </c>
       <c r="T17">
-        <v>0.002673719751059382</v>
+        <v>0.001454908693833947</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.92297499999999</v>
+        <v>17.235221</v>
       </c>
       <c r="H18">
-        <v>81.84594999999999</v>
+        <v>34.470442</v>
       </c>
       <c r="I18">
-        <v>0.6212935934742801</v>
+        <v>0.406632337286806</v>
       </c>
       <c r="J18">
-        <v>0.5223793838279743</v>
+        <v>0.3135940523461183</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>491.042579</v>
       </c>
       <c r="O18">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P18">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q18">
-        <v>6698.307728117508</v>
+        <v>2821.075789824987</v>
       </c>
       <c r="R18">
-        <v>40189.84636870505</v>
+        <v>16926.45473894992</v>
       </c>
       <c r="S18">
-        <v>0.6123468002877391</v>
+        <v>0.4031053921435935</v>
       </c>
       <c r="T18">
-        <v>0.5163351783517035</v>
+        <v>0.3111146072712264</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.92297499999999</v>
+        <v>17.235221</v>
       </c>
       <c r="H19">
-        <v>81.84594999999999</v>
+        <v>34.470442</v>
       </c>
       <c r="I19">
-        <v>0.6212935934742801</v>
+        <v>0.406632337286806</v>
       </c>
       <c r="J19">
-        <v>0.5223793838279743</v>
+        <v>0.3135940523461183</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N19">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O19">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P19">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q19">
-        <v>2.115813294441666</v>
+        <v>2.679117438197666</v>
       </c>
       <c r="R19">
-        <v>12.69487976665</v>
+        <v>16.074704629186</v>
       </c>
       <c r="S19">
-        <v>0.0001934237054262261</v>
+        <v>0.0003828208690523726</v>
       </c>
       <c r="T19">
-        <v>0.0001630962444676262</v>
+        <v>0.0002954591197530608</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.92297499999999</v>
+        <v>17.235221</v>
       </c>
       <c r="H20">
-        <v>81.84594999999999</v>
+        <v>34.470442</v>
       </c>
       <c r="I20">
-        <v>0.6212935934742801</v>
+        <v>0.406632337286806</v>
       </c>
       <c r="J20">
-        <v>0.5223793838279743</v>
+        <v>0.3135940523461183</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N20">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O20">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P20">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q20">
-        <v>58.36954416282499</v>
+        <v>6.600314058055001</v>
       </c>
       <c r="R20">
-        <v>233.4781766512999</v>
+        <v>26.40125623222</v>
       </c>
       <c r="S20">
-        <v>0.005336034869273586</v>
+        <v>0.0009431232568226015</v>
       </c>
       <c r="T20">
-        <v>0.002999588375544314</v>
+        <v>0.0004852650239422619</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.92297499999999</v>
+        <v>17.235221</v>
       </c>
       <c r="H21">
-        <v>81.84594999999999</v>
+        <v>34.470442</v>
       </c>
       <c r="I21">
-        <v>0.6212935934742801</v>
+        <v>0.406632337286806</v>
       </c>
       <c r="J21">
-        <v>0.5223793838279743</v>
+        <v>0.3135940523461183</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N21">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O21">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P21">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q21">
-        <v>2.69576005515</v>
+        <v>2.210802013185667</v>
       </c>
       <c r="R21">
-        <v>16.1745603309</v>
+        <v>13.264812079114</v>
       </c>
       <c r="S21">
-        <v>0.0002464413567004819</v>
+        <v>0.0003159029671203344</v>
       </c>
       <c r="T21">
-        <v>0.0002078011051995154</v>
+        <v>0.0002438122373626005</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.813652666666667</v>
+        <v>7.204486666666667</v>
       </c>
       <c r="H22">
-        <v>14.440958</v>
+        <v>21.61346</v>
       </c>
       <c r="I22">
-        <v>0.07308099088618032</v>
+        <v>0.1699761930652526</v>
       </c>
       <c r="J22">
-        <v>0.09216899238051067</v>
+        <v>0.196627954658102</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N22">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O22">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P22">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q22">
-        <v>4.079968563620445</v>
+        <v>5.514628690584445</v>
       </c>
       <c r="R22">
-        <v>36.719717072584</v>
+        <v>49.63165821526001</v>
       </c>
       <c r="S22">
-        <v>0.0003729831170222571</v>
+        <v>0.0007879889540231966</v>
       </c>
       <c r="T22">
-        <v>0.0004717530266166988</v>
+        <v>0.0009122485536400217</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.813652666666667</v>
+        <v>7.204486666666667</v>
       </c>
       <c r="H23">
-        <v>14.440958</v>
+        <v>21.61346</v>
       </c>
       <c r="I23">
-        <v>0.07308099088618032</v>
+        <v>0.1699761930652526</v>
       </c>
       <c r="J23">
-        <v>0.09216899238051067</v>
+        <v>0.196627954658102</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>491.042579</v>
       </c>
       <c r="O23">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P23">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q23">
-        <v>787.9028066167426</v>
+        <v>1179.236571057038</v>
       </c>
       <c r="R23">
-        <v>7091.125259550683</v>
+        <v>10613.12913951334</v>
       </c>
       <c r="S23">
-        <v>0.07202860515712449</v>
+        <v>0.1685018963760289</v>
       </c>
       <c r="T23">
-        <v>0.09110254844008116</v>
+        <v>0.1950733071444909</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.813652666666667</v>
+        <v>7.204486666666667</v>
       </c>
       <c r="H24">
-        <v>14.440958</v>
+        <v>21.61346</v>
       </c>
       <c r="I24">
-        <v>0.07308099088618032</v>
+        <v>0.1699761930652526</v>
       </c>
       <c r="J24">
-        <v>0.09216899238051067</v>
+        <v>0.196627954658102</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N24">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O24">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P24">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q24">
-        <v>0.2488770747228889</v>
+        <v>1.119896626908889</v>
       </c>
       <c r="R24">
-        <v>2.239893672506</v>
+        <v>10.07906964218</v>
       </c>
       <c r="S24">
-        <v>2.275187802014641E-05</v>
+        <v>0.000160022772368835</v>
       </c>
       <c r="T24">
-        <v>2.877681811152199E-05</v>
+        <v>0.0001852570926249797</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.813652666666667</v>
+        <v>7.204486666666667</v>
       </c>
       <c r="H25">
-        <v>14.440958</v>
+        <v>21.61346</v>
       </c>
       <c r="I25">
-        <v>0.07308099088618032</v>
+        <v>0.1699761930652526</v>
       </c>
       <c r="J25">
-        <v>0.09216899238051067</v>
+        <v>0.196627954658102</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N25">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O25">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P25">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q25">
-        <v>6.865842767088667</v>
+        <v>2.758994191433334</v>
       </c>
       <c r="R25">
-        <v>41.195056602532</v>
+        <v>16.5539651486</v>
       </c>
       <c r="S25">
-        <v>0.0006276625411008149</v>
+        <v>0.0003942345113417272</v>
       </c>
       <c r="T25">
-        <v>0.0005292495199643191</v>
+        <v>0.0003042681084383867</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.813652666666667</v>
+        <v>7.204486666666667</v>
       </c>
       <c r="H26">
-        <v>14.440958</v>
+        <v>21.61346</v>
       </c>
       <c r="I26">
-        <v>0.07308099088618032</v>
+        <v>0.1699761930652526</v>
       </c>
       <c r="J26">
-        <v>0.09216899238051067</v>
+        <v>0.196627954658102</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N26">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O26">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P26">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q26">
-        <v>0.317094555764</v>
+        <v>0.9241363152022224</v>
       </c>
       <c r="R26">
-        <v>2.853851001876</v>
+        <v>8.31722683682</v>
       </c>
       <c r="S26">
-        <v>2.898819291261757E-05</v>
+        <v>0.0001320504514899396</v>
       </c>
       <c r="T26">
-        <v>3.66645757369764E-05</v>
+        <v>0.0001528737589076192</v>
       </c>
     </row>
   </sheetData>
